--- a/data/raw/outcomes.xlsx
+++ b/data/raw/outcomes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heike/Library/Mobile Documents/com~apple~CloudDocs/NC_Master/Writing_Assignment/mIEG/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040302A4-4791-CD4E-84E6-AF762B12BC3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A39D50-DABB-6B46-A998-A3396F57C6D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" activeTab="2" xr2:uid="{70834ED9-2B2F-E544-B85B-10BC4938FC0E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19240" activeTab="3" xr2:uid="{70834ED9-2B2F-E544-B85B-10BC4938FC0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -6770,13 +6772,13 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.1640625" style="152" customWidth="1"/>
-    <col min="2" max="2" width="56.1640625" style="155" customWidth="1"/>
+    <col min="2" max="2" width="61.83203125" style="155" customWidth="1"/>
     <col min="3" max="3" width="52.33203125" style="153" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" style="154" customWidth="1"/>
     <col min="5" max="5" width="61" style="147" customWidth="1"/>
@@ -7404,9 +7406,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F166725-C950-DE43-912F-6AB4F66308DA}">
   <dimension ref="A1:AK73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL11" sqref="AL11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8282,7 +8284,7 @@
         <v>24</v>
       </c>
       <c r="M8" s="27">
-        <f t="shared" ref="M8:M31" si="1">L8*K8</f>
+        <f t="shared" ref="M8:M29" si="1">L8*K8</f>
         <v>48</v>
       </c>
       <c r="N8" s="154" t="s">
@@ -10545,10 +10547,10 @@
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A28" s="203">
-        <v>18446587</v>
+        <v>19563881</v>
       </c>
       <c r="B28" s="186" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C28" s="182" t="s">
         <v>295</v>
@@ -10595,7 +10597,7 @@
         <v>302</v>
       </c>
       <c r="Q28" s="154" t="s">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="R28" s="27">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>0.5</v>
       </c>
       <c r="U28" s="188">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V28" s="27" t="s">
         <v>362</v>
@@ -10619,10 +10621,10 @@
         <v>305</v>
       </c>
       <c r="Y28" s="154" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="Z28" s="161">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="AA28" s="161" t="s">
         <v>307</v>
@@ -10660,10 +10662,10 @@
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A29" s="203">
-        <v>18446587</v>
+        <v>19563881</v>
       </c>
       <c r="B29" s="186" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C29" s="182" t="s">
         <v>295</v>
@@ -10710,7 +10712,7 @@
         <v>302</v>
       </c>
       <c r="Q29" s="154" t="s">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="R29" s="27">
         <v>0</v>
@@ -10722,7 +10724,7 @@
         <v>0.5</v>
       </c>
       <c r="U29" s="188">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V29" s="215" t="s">
         <v>450</v>
@@ -10734,10 +10736,10 @@
         <v>305</v>
       </c>
       <c r="Y29" s="154" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="Z29" s="161">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="AA29" s="161" t="s">
         <v>307</v>
@@ -10775,10 +10777,10 @@
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A30" s="203">
-        <v>19563881</v>
+        <v>18446587</v>
       </c>
       <c r="B30" s="186" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C30" s="182" t="s">
         <v>295</v>
@@ -10805,14 +10807,14 @@
         <v>21</v>
       </c>
       <c r="K30" s="27">
-        <f t="shared" si="0"/>
+        <f>J30-I30+1</f>
         <v>21</v>
       </c>
       <c r="L30" s="27">
         <v>4.5</v>
       </c>
       <c r="M30" s="27">
-        <f t="shared" si="1"/>
+        <f>L30*K30</f>
         <v>94.5</v>
       </c>
       <c r="N30" s="154" t="s">
@@ -10825,7 +10827,7 @@
         <v>302</v>
       </c>
       <c r="Q30" s="154" t="s">
-        <v>303</v>
+        <v>361</v>
       </c>
       <c r="R30" s="27">
         <v>0</v>
@@ -10837,7 +10839,7 @@
         <v>0.5</v>
       </c>
       <c r="U30" s="188">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V30" s="27" t="s">
         <v>362</v>
@@ -10849,10 +10851,10 @@
         <v>305</v>
       </c>
       <c r="Y30" s="154" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="Z30" s="161">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="AA30" s="161" t="s">
         <v>307</v>
@@ -10890,10 +10892,10 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A31" s="203">
-        <v>19563881</v>
+        <v>18446587</v>
       </c>
       <c r="B31" s="186" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C31" s="182" t="s">
         <v>295</v>
@@ -10920,14 +10922,14 @@
         <v>21</v>
       </c>
       <c r="K31" s="27">
-        <f t="shared" si="0"/>
+        <f>J31-I31+1</f>
         <v>21</v>
       </c>
       <c r="L31" s="27">
         <v>4.5</v>
       </c>
       <c r="M31" s="27">
-        <f t="shared" si="1"/>
+        <f>L31*K31</f>
         <v>94.5</v>
       </c>
       <c r="N31" s="154" t="s">
@@ -10940,7 +10942,7 @@
         <v>302</v>
       </c>
       <c r="Q31" s="154" t="s">
-        <v>303</v>
+        <v>361</v>
       </c>
       <c r="R31" s="27">
         <v>0</v>
@@ -10952,7 +10954,7 @@
         <v>0.5</v>
       </c>
       <c r="U31" s="188">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V31" s="215" t="s">
         <v>450</v>
@@ -10964,10 +10966,10 @@
         <v>305</v>
       </c>
       <c r="Y31" s="154" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="Z31" s="161">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="AA31" s="161" t="s">
         <v>307</v>
@@ -15838,9 +15840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081243C3-B6CC-1246-8C70-E0427C9CF2DB}">
   <dimension ref="A1:AK334"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG166" sqref="AG166"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A149" sqref="A149:AK150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32599,10 +32601,10 @@
     </row>
     <row r="149" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A149" s="110" t="s">
-        <v>363</v>
-      </c>
-      <c r="B149" s="186" t="s">
-        <v>651</v>
+        <v>360</v>
+      </c>
+      <c r="B149" s="147" t="s">
+        <v>653</v>
       </c>
       <c r="C149" s="27" t="s">
         <v>455</v>
@@ -32638,16 +32640,16 @@
         <v>1</v>
       </c>
       <c r="N149" s="27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O149" s="27">
-        <v>131.209</v>
+        <v>122.727</v>
       </c>
       <c r="P149" s="27" t="s">
         <v>298</v>
       </c>
       <c r="Q149" s="27">
-        <v>7.2529999999999859</v>
+        <v>8.1819999999999879</v>
       </c>
       <c r="R149" s="27" t="s">
         <v>474</v>
@@ -32656,13 +32658,13 @@
         <v>4</v>
       </c>
       <c r="T149" s="27">
-        <v>279.56</v>
+        <v>125.90900000000001</v>
       </c>
       <c r="U149" s="27" t="s">
         <v>298</v>
       </c>
       <c r="V149" s="27">
-        <v>5.9350000000000023</v>
+        <v>14.090999999999994</v>
       </c>
       <c r="W149" s="27" t="s">
         <v>474</v>
@@ -32674,7 +32676,7 @@
         <v>307</v>
       </c>
       <c r="Z149" s="147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA149" s="27" t="s">
         <v>475</v>
@@ -32695,7 +32697,7 @@
         <v>475</v>
       </c>
       <c r="AG149" s="27" t="s">
-        <v>368</v>
+        <v>301</v>
       </c>
       <c r="AH149" s="27" t="s">
         <v>475</v>
@@ -32712,10 +32714,10 @@
     </row>
     <row r="150" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A150" s="110" t="s">
-        <v>364</v>
-      </c>
-      <c r="B150" s="186" t="s">
-        <v>652</v>
+        <v>360</v>
+      </c>
+      <c r="B150" s="147" t="s">
+        <v>654</v>
       </c>
       <c r="C150" s="27" t="s">
         <v>455</v>
@@ -32733,13 +32735,13 @@
         <v>564</v>
       </c>
       <c r="H150" s="244" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="I150" s="110" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J150" s="110" t="s">
-        <v>459</v>
+        <v>533</v>
       </c>
       <c r="K150" s="147" t="s">
         <v>304</v>
@@ -32751,16 +32753,16 @@
         <v>1</v>
       </c>
       <c r="N150" s="27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O150" s="27">
-        <v>15.824</v>
+        <v>26.065999999999999</v>
       </c>
       <c r="P150" s="27" t="s">
         <v>298</v>
       </c>
       <c r="Q150" s="27">
-        <v>0</v>
+        <v>4.6720000000000006</v>
       </c>
       <c r="R150" s="27" t="s">
         <v>474</v>
@@ -32769,13 +32771,13 @@
         <v>4</v>
       </c>
       <c r="T150" s="27">
-        <v>164.83500000000001</v>
+        <v>61.720999999999997</v>
       </c>
       <c r="U150" s="27" t="s">
         <v>298</v>
       </c>
       <c r="V150" s="27">
-        <v>9.8899999999999864</v>
+        <v>15.246000000000002</v>
       </c>
       <c r="W150" s="27" t="s">
         <v>474</v>
@@ -32808,7 +32810,7 @@
         <v>475</v>
       </c>
       <c r="AG150" s="27" t="s">
-        <v>368</v>
+        <v>301</v>
       </c>
       <c r="AH150" s="27" t="s">
         <v>475</v>
@@ -32828,7 +32830,7 @@
         <v>360</v>
       </c>
       <c r="B151" s="147" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C151" s="27" t="s">
         <v>455</v>
@@ -32846,13 +32848,13 @@
         <v>564</v>
       </c>
       <c r="H151" s="244" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="I151" s="110" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="J151" s="110" t="s">
-        <v>459</v>
+        <v>531</v>
       </c>
       <c r="K151" s="147" t="s">
         <v>304</v>
@@ -32867,13 +32869,13 @@
         <v>6</v>
       </c>
       <c r="O151" s="27">
-        <v>122.727</v>
+        <v>109.096</v>
       </c>
       <c r="P151" s="27" t="s">
         <v>298</v>
       </c>
       <c r="Q151" s="27">
-        <v>8.1819999999999879</v>
+        <v>5.2129999999999939</v>
       </c>
       <c r="R151" s="27" t="s">
         <v>474</v>
@@ -32882,13 +32884,13 @@
         <v>4</v>
       </c>
       <c r="T151" s="27">
-        <v>125.90900000000001</v>
+        <v>127.71299999999999</v>
       </c>
       <c r="U151" s="27" t="s">
         <v>298</v>
       </c>
       <c r="V151" s="27">
-        <v>14.090999999999994</v>
+        <v>3.7230000000000132</v>
       </c>
       <c r="W151" s="27" t="s">
         <v>474</v>
@@ -32900,7 +32902,7 @@
         <v>307</v>
       </c>
       <c r="Z151" s="147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA151" s="27" t="s">
         <v>475</v>
@@ -32937,11 +32939,11 @@
       </c>
     </row>
     <row r="152" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A152" s="110" t="s">
-        <v>360</v>
+      <c r="A152" s="240" t="s">
+        <v>365</v>
       </c>
       <c r="B152" s="147" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C152" s="27" t="s">
         <v>455</v>
@@ -32959,13 +32961,13 @@
         <v>564</v>
       </c>
       <c r="H152" s="244" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="I152" s="110" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J152" s="110" t="s">
-        <v>533</v>
+        <v>459</v>
       </c>
       <c r="K152" s="147" t="s">
         <v>304</v>
@@ -32977,31 +32979,31 @@
         <v>1</v>
       </c>
       <c r="N152" s="27">
+        <v>4</v>
+      </c>
+      <c r="O152" s="27">
+        <v>54.091000000000001</v>
+      </c>
+      <c r="P152" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q152" s="27">
+        <v>13.636000000000003</v>
+      </c>
+      <c r="R152" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="S152" s="27">
         <v>6</v>
       </c>
-      <c r="O152" s="27">
-        <v>26.065999999999999</v>
-      </c>
-      <c r="P152" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q152" s="27">
-        <v>4.6720000000000006</v>
-      </c>
-      <c r="R152" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="S152" s="27">
-        <v>4</v>
-      </c>
       <c r="T152" s="27">
-        <v>61.720999999999997</v>
+        <v>143.636</v>
       </c>
       <c r="U152" s="27" t="s">
         <v>298</v>
       </c>
       <c r="V152" s="27">
-        <v>15.246000000000002</v>
+        <v>26.819000000000017</v>
       </c>
       <c r="W152" s="27" t="s">
         <v>474</v>
@@ -33050,11 +33052,11 @@
       </c>
     </row>
     <row r="153" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A153" s="110" t="s">
-        <v>360</v>
+      <c r="A153" s="240" t="s">
+        <v>365</v>
       </c>
       <c r="B153" s="147" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C153" s="27" t="s">
         <v>455</v>
@@ -33072,13 +33074,13 @@
         <v>564</v>
       </c>
       <c r="H153" s="244" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I153" s="110" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J153" s="110" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="K153" s="147" t="s">
         <v>304</v>
@@ -33090,31 +33092,31 @@
         <v>1</v>
       </c>
       <c r="N153" s="27">
+        <v>4</v>
+      </c>
+      <c r="O153" s="27">
+        <v>29.262</v>
+      </c>
+      <c r="P153" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q153" s="27">
+        <v>8.6069999999999993</v>
+      </c>
+      <c r="R153" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="S153" s="27">
         <v>6</v>
       </c>
-      <c r="O153" s="27">
-        <v>109.096</v>
-      </c>
-      <c r="P153" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q153" s="27">
-        <v>5.2129999999999939</v>
-      </c>
-      <c r="R153" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="S153" s="27">
-        <v>4</v>
-      </c>
       <c r="T153" s="27">
-        <v>127.71299999999999</v>
+        <v>47.459000000000003</v>
       </c>
       <c r="U153" s="27" t="s">
         <v>298</v>
       </c>
       <c r="V153" s="27">
-        <v>3.7230000000000132</v>
+        <v>7.3769999999999953</v>
       </c>
       <c r="W153" s="27" t="s">
         <v>474</v>
@@ -33126,7 +33128,7 @@
         <v>307</v>
       </c>
       <c r="Z153" s="147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA153" s="27" t="s">
         <v>475</v>
@@ -33167,7 +33169,7 @@
         <v>365</v>
       </c>
       <c r="B154" s="147" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C154" s="27" t="s">
         <v>455</v>
@@ -33185,13 +33187,13 @@
         <v>564</v>
       </c>
       <c r="H154" s="244" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="I154" s="110" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="J154" s="110" t="s">
-        <v>459</v>
+        <v>531</v>
       </c>
       <c r="K154" s="147" t="s">
         <v>304</v>
@@ -33206,13 +33208,13 @@
         <v>4</v>
       </c>
       <c r="O154" s="27">
-        <v>54.091000000000001</v>
+        <v>88.245000000000005</v>
       </c>
       <c r="P154" s="27" t="s">
         <v>298</v>
       </c>
       <c r="Q154" s="27">
-        <v>13.636000000000003</v>
+        <v>4.8399999999999892</v>
       </c>
       <c r="R154" s="27" t="s">
         <v>474</v>
@@ -33221,13 +33223,13 @@
         <v>6</v>
       </c>
       <c r="T154" s="27">
-        <v>143.636</v>
+        <v>111.33</v>
       </c>
       <c r="U154" s="27" t="s">
         <v>298</v>
       </c>
       <c r="V154" s="27">
-        <v>26.819000000000017</v>
+        <v>4.8400000000000034</v>
       </c>
       <c r="W154" s="27" t="s">
         <v>474</v>
@@ -33276,11 +33278,11 @@
       </c>
     </row>
     <row r="155" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A155" s="240" t="s">
-        <v>365</v>
-      </c>
-      <c r="B155" s="147" t="s">
-        <v>657</v>
+      <c r="A155" s="110" t="s">
+        <v>363</v>
+      </c>
+      <c r="B155" s="186" t="s">
+        <v>651</v>
       </c>
       <c r="C155" s="27" t="s">
         <v>455</v>
@@ -33298,13 +33300,13 @@
         <v>564</v>
       </c>
       <c r="H155" s="244" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="I155" s="110" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J155" s="110" t="s">
-        <v>533</v>
+        <v>459</v>
       </c>
       <c r="K155" s="147" t="s">
         <v>304</v>
@@ -33319,28 +33321,28 @@
         <v>4</v>
       </c>
       <c r="O155" s="27">
-        <v>29.262</v>
+        <v>131.209</v>
       </c>
       <c r="P155" s="27" t="s">
         <v>298</v>
       </c>
       <c r="Q155" s="27">
-        <v>8.6069999999999993</v>
+        <v>7.2529999999999859</v>
       </c>
       <c r="R155" s="27" t="s">
         <v>474</v>
       </c>
       <c r="S155" s="27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T155" s="27">
-        <v>47.459000000000003</v>
+        <v>279.56</v>
       </c>
       <c r="U155" s="27" t="s">
         <v>298</v>
       </c>
       <c r="V155" s="27">
-        <v>7.3769999999999953</v>
+        <v>5.9350000000000023</v>
       </c>
       <c r="W155" s="27" t="s">
         <v>474</v>
@@ -33352,7 +33354,7 @@
         <v>307</v>
       </c>
       <c r="Z155" s="147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA155" s="27" t="s">
         <v>475</v>
@@ -33373,7 +33375,7 @@
         <v>475</v>
       </c>
       <c r="AG155" s="27" t="s">
-        <v>301</v>
+        <v>368</v>
       </c>
       <c r="AH155" s="27" t="s">
         <v>475</v>
@@ -33389,11 +33391,11 @@
       </c>
     </row>
     <row r="156" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A156" s="240" t="s">
-        <v>365</v>
-      </c>
-      <c r="B156" s="147" t="s">
-        <v>658</v>
+      <c r="A156" s="110" t="s">
+        <v>364</v>
+      </c>
+      <c r="B156" s="186" t="s">
+        <v>652</v>
       </c>
       <c r="C156" s="27" t="s">
         <v>455</v>
@@ -33411,13 +33413,13 @@
         <v>564</v>
       </c>
       <c r="H156" s="244" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="I156" s="110" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J156" s="110" t="s">
-        <v>531</v>
+        <v>459</v>
       </c>
       <c r="K156" s="147" t="s">
         <v>304</v>
@@ -33432,28 +33434,28 @@
         <v>4</v>
       </c>
       <c r="O156" s="27">
-        <v>88.245000000000005</v>
+        <v>15.824</v>
       </c>
       <c r="P156" s="27" t="s">
         <v>298</v>
       </c>
       <c r="Q156" s="27">
-        <v>4.8399999999999892</v>
+        <v>0</v>
       </c>
       <c r="R156" s="27" t="s">
         <v>474</v>
       </c>
       <c r="S156" s="27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T156" s="27">
-        <v>111.33</v>
+        <v>164.83500000000001</v>
       </c>
       <c r="U156" s="27" t="s">
         <v>298</v>
       </c>
       <c r="V156" s="27">
-        <v>4.8400000000000034</v>
+        <v>9.8899999999999864</v>
       </c>
       <c r="W156" s="27" t="s">
         <v>474</v>
@@ -33486,7 +33488,7 @@
         <v>475</v>
       </c>
       <c r="AG156" s="27" t="s">
-        <v>301</v>
+        <v>368</v>
       </c>
       <c r="AH156" s="27" t="s">
         <v>475</v>

--- a/data/raw/outcomes.xlsx
+++ b/data/raw/outcomes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/heike_schuler_mail_mcgill_ca/Documents/PhD/Projects/01_mIEG/mIEG_old/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/heike_schuler_mail_mcgill_ca/Documents/PhD/Projects/01_mIEG/mIEG/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="752" documentId="13_ncr:1_{0EA61F76-6E0A-7546-A7A6-6E90A98ECF14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{98563A52-F9D6-452B-90EE-02330B096CBC}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15733" activeTab="3" xr2:uid="{70834ED9-2B2F-E544-B85B-10BC4938FC0E}"/>
+    <workbookView xWindow="-6040" yWindow="27" windowWidth="17053" windowHeight="9953" activeTab="2" xr2:uid="{70834ED9-2B2F-E544-B85B-10BC4938FC0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -7155,7 +7155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40EA853-F039-B44F-B8CA-F00ABF1BE6FE}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -7859,9 +7859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F166725-C950-DE43-912F-6AB4F66308DA}">
   <dimension ref="A1:AK79"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="13.7" x14ac:dyDescent="0.4"/>
@@ -16980,7 +16980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081243C3-B6CC-1246-8C70-E0427C9CF2DB}">
   <dimension ref="A1:AL364"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+    <sheetView zoomScale="82" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
     </sheetView>
